--- a/additionalFiles/w12.xlsx
+++ b/additionalFiles/w12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\year2\sem2\CO\benchmarkProject\additionalFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\year 2\sem2\co\PROJECT here\benchmarkProject\additionalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE9533-AF45-4E77-AC06-151540DC50D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCCD07-8796-48B0-B524-F7C40913342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20030" yWindow="2860" windowWidth="25760" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495066</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578B0CBD-05F4-A896-67CE-B59E9DBA1901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714266" y="0"/>
+          <a:ext cx="3187959" cy="3228831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,18 +411,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -381,7 +430,7 @@
         <v>161629</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -389,7 +438,7 @@
         <v>133968</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -397,7 +446,7 @@
         <v>38939</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -405,12 +454,12 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -418,7 +467,7 @@
         <v>37.735849056603698</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -426,7 +475,7 @@
         <v>723.880597014925</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -434,7 +483,7 @@
         <v>3240.6639004149301</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -444,5 +493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>